--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>607270.3388949984</v>
+        <v>538836.425446809</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554243</v>
+        <v>337002.2430554233</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.6809952</v>
+        <v>10947499.68099519</v>
       </c>
     </row>
     <row r="9">
@@ -658,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>230.8744955960827</v>
-      </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>82.69355372315668</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,31 +895,31 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>82.46119763909351</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>65.1306020652372</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="9">
@@ -1214,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>106.6874096712025</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>61.9072046456624</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>179.9801496149895</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,31 +1572,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>9.275596830496966</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>16.91544265059203</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>219.5718016343167</v>
       </c>
       <c r="E14" t="n">
-        <v>223.2313364254899</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,10 +1703,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250886</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>26.32882004050061</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>9.27559683049698</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1846,19 +1846,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.7404184713148</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>50.36218625475047</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,10 +1940,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>207.2254923650022</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>99.38122376111812</v>
       </c>
     </row>
     <row r="20">
@@ -2089,10 +2089,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>71.20366745328644</v>
       </c>
       <c r="F20" t="n">
-        <v>145.34558245517</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -2143,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2171,7 +2171,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>136.5310119231965</v>
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2283,28 +2283,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>54.47555601903409</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>213.6743229269901</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2323,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>12.54198345916413</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>45.23138481401359</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>11.00429467105819</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.055538822593</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2557,25 +2557,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>275.4805812731082</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>224.2535473990623</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2648,7 +2648,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
         <v>104.3883541553076</v>
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>94.63926978364043</v>
       </c>
       <c r="H28" t="n">
-        <v>87.12574707908767</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>163.3224055697213</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>85.42957511242953</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>56.51458129297908</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>6.83713971298207</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
@@ -3088,16 +3088,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>77.58055352005019</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>240.3575405958596</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
-        <v>156.591242632523</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T33" t="n">
         <v>196.8897623984489</v>
@@ -3231,31 +3231,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>60.92600812502312</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>155.2114886365804</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3271,22 +3271,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>353.5759586385881</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>246.7422168027768</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
@@ -3328,10 +3328,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>116.1430940756185</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>208.3423105940809</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>93.189156238468</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
@@ -3565,10 +3565,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>276.2983106514745</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>201.0891638436808</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>206.1608002224378</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>224.0113120362624</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>180.2266752473219</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>62.9536956950552</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>50.05665370612868</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>247.8767211222546</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,10 +3985,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
@@ -4024,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>221.002178698296</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>203.1609600883621</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.787420751036564</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4357,25 +4357,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V2" t="n">
-        <v>730.8505943024719</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W2" t="n">
-        <v>730.8505943024719</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X2" t="n">
-        <v>487.4018176583718</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="Y2" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>102.8099852548154</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="H3" t="n">
         <v>19.28114311021272</v>
@@ -4415,19 +4415,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4442,19 +4442,19 @@
         <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>761.8705608694022</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V3" t="n">
-        <v>761.8705608694022</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W3" t="n">
-        <v>518.4217842253022</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X3" t="n">
-        <v>310.5702840197694</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y3" t="n">
-        <v>102.8099852548154</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="4">
@@ -4506,25 +4506,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>114.6452713866835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>114.6452713866835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>114.6452713866835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>114.6452713866835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>114.6452713866835</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>114.6452713866835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>114.6452713866835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>358.0940480307835</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>358.0940480307835</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="6">
@@ -4649,13 +4649,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
         <v>542.809531908403</v>
@@ -4673,16 +4673,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="U6" t="n">
-        <v>913.4938269565423</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V6" t="n">
-        <v>678.3417187247995</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W6" t="n">
         <v>434.8929420806995</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4749,28 +4749,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>710.516763498309</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>467.067986854209</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>223.6192102101089</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>648.4405950311615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>473.9875657500345</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
         <v>19.28114311021272</v>
@@ -4895,13 +4895,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4916,19 +4916,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W9" t="n">
-        <v>856.2920952366943</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X9" t="n">
-        <v>648.4405950311615</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y9" t="n">
-        <v>648.4405950311615</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4992,22 +4992,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>781.1711973675267</v>
+        <v>1314.38774159731</v>
       </c>
       <c r="C11" t="n">
-        <v>412.208680427115</v>
+        <v>945.4252246568988</v>
       </c>
       <c r="D11" t="n">
-        <v>53.94298182036446</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036446</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036446</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K11" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
         <v>881.2824271224079</v>
@@ -5059,34 +5059,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V11" t="n">
-        <v>2284.144782938654</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W11" t="n">
-        <v>1931.37612766854</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X11" t="n">
-        <v>1557.91036940746</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y11" t="n">
-        <v>1167.771037431648</v>
+        <v>1314.38774159731</v>
       </c>
     </row>
     <row r="12">
@@ -5096,67 +5096,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5165,7 +5165,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C13" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D13" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E13" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>99.59950625323012</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X13" t="n">
-        <v>99.59950625323012</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="Y13" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1108.378893121371</v>
+        <v>1490.470645930551</v>
       </c>
       <c r="C14" t="n">
-        <v>1108.378893121371</v>
+        <v>1490.470645930551</v>
       </c>
       <c r="D14" t="n">
-        <v>1108.378893121371</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E14" t="n">
         <v>882.8926947117852</v>
@@ -5269,22 +5269,22 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5293,37 +5293,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T14" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U14" t="n">
-        <v>2224.752638628377</v>
+        <v>2267.209817970485</v>
       </c>
       <c r="V14" t="n">
-        <v>2224.752638628377</v>
+        <v>2267.209817970485</v>
       </c>
       <c r="W14" t="n">
-        <v>1871.983983358263</v>
+        <v>2267.209817970485</v>
       </c>
       <c r="X14" t="n">
-        <v>1498.518225097183</v>
+        <v>2267.209817970485</v>
       </c>
       <c r="Y14" t="n">
-        <v>1108.378893121371</v>
+        <v>1877.070485994673</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170839</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359569</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747056</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692501</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961351</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424012</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673431</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M15" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517454</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152627</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
         <v>2646.935720430048</v>
@@ -5390,19 +5390,19 @@
         <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167583</v>
       </c>
       <c r="V15" t="n">
         <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207639</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002106</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.5995062532301</v>
+        <v>546.4805193761948</v>
       </c>
       <c r="C16" t="n">
-        <v>99.5995062532301</v>
+        <v>377.5443364482879</v>
       </c>
       <c r="D16" t="n">
-        <v>99.5995062532301</v>
+        <v>227.4276970359522</v>
       </c>
       <c r="E16" t="n">
-        <v>99.5995062532301</v>
+        <v>227.4276970359522</v>
       </c>
       <c r="F16" t="n">
-        <v>99.5995062532301</v>
+        <v>80.53774953804185</v>
       </c>
       <c r="G16" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H16" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I16" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5445,7 +5445,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N16" t="n">
         <v>529.6040388502502</v>
@@ -5454,34 +5454,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U16" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V16" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W16" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X16" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y16" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>750.1002187247734</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C17" t="n">
-        <v>381.1377017843616</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D17" t="n">
-        <v>381.1377017843616</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E17" t="n">
-        <v>381.1377017843616</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F17" t="n">
-        <v>381.1377017843616</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G17" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733129</v>
@@ -5533,34 +5533,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R17" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2253.073804295901</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U17" t="n">
-        <v>2253.073804295901</v>
+        <v>2372.61483931396</v>
       </c>
       <c r="V17" t="n">
-        <v>2253.073804295901</v>
+        <v>2372.61483931396</v>
       </c>
       <c r="W17" t="n">
-        <v>1900.305149025787</v>
+        <v>2372.61483931396</v>
       </c>
       <c r="X17" t="n">
-        <v>1526.839390764707</v>
+        <v>2372.61483931396</v>
       </c>
       <c r="Y17" t="n">
-        <v>1136.700058788895</v>
+        <v>1982.475507338148</v>
       </c>
     </row>
     <row r="18">
@@ -5585,22 +5585,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M18" t="n">
         <v>1194.968834417902</v>
@@ -5615,7 +5615,7 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
         <v>2646.935720430048</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>337.1618402196266</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="C19" t="n">
-        <v>337.1618402196266</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D19" t="n">
-        <v>337.1618402196266</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E19" t="n">
-        <v>337.1618402196266</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F19" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S19" t="n">
-        <v>518.8103050498663</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T19" t="n">
-        <v>518.8103050498663</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U19" t="n">
-        <v>518.8103050498663</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V19" t="n">
-        <v>518.8103050498663</v>
+        <v>473.4444960005477</v>
       </c>
       <c r="W19" t="n">
-        <v>518.8103050498663</v>
+        <v>473.4444960005477</v>
       </c>
       <c r="X19" t="n">
-        <v>518.8103050498663</v>
+        <v>473.4444960005477</v>
       </c>
       <c r="Y19" t="n">
-        <v>518.8103050498663</v>
+        <v>373.0594214943678</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1408.645612988121</v>
+        <v>1744.740694543503</v>
       </c>
       <c r="C20" t="n">
-        <v>1039.683096047709</v>
+        <v>1375.778177603091</v>
       </c>
       <c r="D20" t="n">
-        <v>681.4173974409589</v>
+        <v>1017.512478996341</v>
       </c>
       <c r="E20" t="n">
-        <v>681.4173974409589</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F20" t="n">
         <v>534.603677789272</v>
@@ -5749,7 +5749,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533141</v>
@@ -5758,13 +5758,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T20" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U20" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V20" t="n">
-        <v>2134.880026519315</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="W20" t="n">
-        <v>1782.111371249201</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="X20" t="n">
-        <v>1408.645612988121</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="Y20" t="n">
-        <v>1408.645612988121</v>
+        <v>1744.740694543503</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5870,10 +5870,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632153</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q22" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R22" t="n">
-        <v>2519.585513306029</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S22" t="n">
-        <v>2305.297090124192</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T22" t="n">
-        <v>2077.988902792793</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U22" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V22" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W22" t="n">
-        <v>2022.963088632153</v>
+        <v>438.7118141694735</v>
       </c>
       <c r="X22" t="n">
-        <v>2022.963088632153</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632153</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>991.2778500677821</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="C23" t="n">
-        <v>991.2778500677821</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="D23" t="n">
-        <v>991.2778500677821</v>
+        <v>1331.377835177124</v>
       </c>
       <c r="E23" t="n">
-        <v>991.2778500677821</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F23" t="n">
-        <v>580.2919452781746</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G23" t="n">
         <v>534.603677789272</v>
@@ -5986,7 +5986,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533141</v>
@@ -5995,7 +5995,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6016,25 +6016,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2520.971603332393</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T23" t="n">
         <v>2302.336936304455</v>
       </c>
       <c r="U23" t="n">
-        <v>2048.575150942547</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="V23" t="n">
         <v>1717.512263598976</v>
       </c>
       <c r="W23" t="n">
-        <v>1364.743608328862</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X23" t="n">
-        <v>991.2778500677821</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="Y23" t="n">
-        <v>991.2778500677821</v>
+        <v>1344.046505337896</v>
       </c>
     </row>
     <row r="24">
@@ -6044,73 +6044,73 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>391.878965009939</v>
+        <v>65.05843098304948</v>
       </c>
       <c r="C25" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D25" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E25" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F25" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6174,25 +6174,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064342</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="Y25" t="n">
-        <v>573.5274298401787</v>
+        <v>65.05843098304948</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1320.425425970681</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C26" t="n">
-        <v>951.4629090302697</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D26" t="n">
-        <v>593.1972104235191</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E26" t="n">
-        <v>207.4089578252748</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
-        <v>207.4089578252748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
         <v>881.2824271224076</v>
@@ -6244,34 +6244,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W26" t="n">
-        <v>2470.630356271695</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X26" t="n">
-        <v>2097.164598010615</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y26" t="n">
-        <v>1707.025266034803</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
         <v>221.4284102424006</v>
@@ -6302,7 +6302,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
@@ -6317,31 +6317,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>438.9553738610022</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="C28" t="n">
-        <v>438.9553738610022</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="D28" t="n">
-        <v>288.8387344486664</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="E28" t="n">
-        <v>288.8387344486664</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="F28" t="n">
-        <v>141.948786950756</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="G28" t="n">
-        <v>141.948786950756</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6393,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U28" t="n">
-        <v>438.9553738610022</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V28" t="n">
-        <v>438.9553738610022</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="W28" t="n">
-        <v>438.9553738610022</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="X28" t="n">
-        <v>438.9553738610022</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="Y28" t="n">
-        <v>438.9553738610022</v>
+        <v>149.5382038240417</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>381.1377017843616</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="C29" t="n">
-        <v>381.1377017843616</v>
+        <v>884.2894331389243</v>
       </c>
       <c r="D29" t="n">
-        <v>381.1377017843616</v>
+        <v>526.0237345321739</v>
       </c>
       <c r="E29" t="n">
-        <v>381.1377017843616</v>
+        <v>140.2354819339296</v>
       </c>
       <c r="F29" t="n">
-        <v>381.1377017843616</v>
+        <v>140.2354819339296</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
         <v>53.94298182036445</v>
@@ -6466,16 +6466,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>1662.48357412947</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W29" t="n">
-        <v>1309.714918859356</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X29" t="n">
-        <v>936.2491605982757</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y29" t="n">
-        <v>546.109828622464</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="30">
@@ -6518,73 +6518,73 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2173.079728044489</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C31" t="n">
-        <v>2173.079728044489</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018222</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U31" t="n">
-        <v>2407.975480672791</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="V31" t="n">
-        <v>2407.975480672791</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="W31" t="n">
-        <v>2407.975480672791</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="X31" t="n">
-        <v>2179.985929774773</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="Y31" t="n">
-        <v>2173.079728044489</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>412.208680427115</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C32" t="n">
-        <v>412.208680427115</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D32" t="n">
-        <v>53.94298182036446</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E32" t="n">
-        <v>53.94298182036446</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036446</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2247.308246834949</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U32" t="n">
-        <v>1993.546461473041</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V32" t="n">
-        <v>1915.182265998242</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W32" t="n">
-        <v>1562.413610728128</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="X32" t="n">
-        <v>1188.947852467049</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="Y32" t="n">
-        <v>798.8085204912368</v>
+        <v>1595.875667274027</v>
       </c>
     </row>
     <row r="33">
@@ -6755,73 +6755,73 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018223</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018223</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018223</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018223</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018223</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V34" t="n">
-        <v>2540.369809567132</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W34" t="n">
-        <v>2250.952639530171</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1309.714918859356</v>
+        <v>1465.19530355422</v>
       </c>
       <c r="C35" t="n">
-        <v>1309.714918859356</v>
+        <v>1465.19530355422</v>
       </c>
       <c r="D35" t="n">
-        <v>952.5674858910851</v>
+        <v>1106.929604947469</v>
       </c>
       <c r="E35" t="n">
-        <v>952.5674858910851</v>
+        <v>721.1413523492249</v>
       </c>
       <c r="F35" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036446</v>
@@ -6943,13 +6943,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6964,25 +6964,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834949</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.546461473041</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V35" t="n">
-        <v>1662.48357412947</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W35" t="n">
-        <v>1309.714918859356</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X35" t="n">
-        <v>1309.714918859356</v>
+        <v>1465.19530355422</v>
       </c>
       <c r="Y35" t="n">
-        <v>1309.714918859356</v>
+        <v>1465.19530355422</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>319.1723320447965</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C37" t="n">
-        <v>319.1723320447965</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D37" t="n">
-        <v>319.1723320447965</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E37" t="n">
-        <v>171.2592384624033</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
-        <v>171.2592384624033</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G37" t="n">
         <v>53.94298182036446</v>
@@ -7101,46 +7101,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T37" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U37" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V37" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W37" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X37" t="n">
-        <v>500.8207968750362</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="Y37" t="n">
-        <v>500.8207968750362</v>
+        <v>517.6822058285749</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1261.831893336434</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C38" t="n">
-        <v>892.8693763960225</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D38" t="n">
-        <v>534.603677789272</v>
+        <v>1304.21787552272</v>
       </c>
       <c r="E38" t="n">
-        <v>534.603677789272</v>
+        <v>1304.21787552272</v>
       </c>
       <c r="F38" t="n">
-        <v>534.603677789272</v>
+        <v>893.2319707331121</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>475.268162631299</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>148.0734426673018</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
         <v>1836.345445977174</v>
@@ -7195,31 +7195,31 @@
         <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U38" t="n">
-        <v>2224.752638628376</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V38" t="n">
-        <v>1893.689751284805</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W38" t="n">
-        <v>1540.921096014691</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X38" t="n">
-        <v>1261.831893336434</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y38" t="n">
-        <v>1261.831893336434</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="39">
@@ -7229,34 +7229,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K39" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
         <v>713.8062203571349</v>
@@ -7274,28 +7274,28 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036444</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036444</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7368,16 +7368,16 @@
         <v>728.1289842064343</v>
       </c>
       <c r="V40" t="n">
-        <v>525.0086166875648</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W40" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X40" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y40" t="n">
-        <v>235.5914466506042</v>
+        <v>519.8857516585174</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>983.6384645338385</v>
+        <v>1349.006596680237</v>
       </c>
       <c r="C41" t="n">
-        <v>983.6384645338385</v>
+        <v>980.0440797398257</v>
       </c>
       <c r="D41" t="n">
-        <v>625.3727659270879</v>
+        <v>621.7783811330753</v>
       </c>
       <c r="E41" t="n">
-        <v>625.3727659270879</v>
+        <v>235.9901285348311</v>
       </c>
       <c r="F41" t="n">
-        <v>625.3727659270879</v>
+        <v>235.9901285348311</v>
       </c>
       <c r="G41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533142</v>
@@ -7417,46 +7417,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U41" t="n">
-        <v>2267.209817970484</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V41" t="n">
-        <v>1936.146930626914</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W41" t="n">
-        <v>1583.3782753568</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X41" t="n">
-        <v>1209.91251709572</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="Y41" t="n">
-        <v>1209.91251709572</v>
+        <v>1735.606436744359</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
@@ -7502,37 +7502,37 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7593,28 +7593,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T43" t="n">
-        <v>579.9823256406185</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U43" t="n">
-        <v>579.9823256406185</v>
+        <v>222.942782082032</v>
       </c>
       <c r="V43" t="n">
-        <v>325.2978374347316</v>
+        <v>222.942782082032</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2978374347316</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X43" t="n">
-        <v>274.7355609638946</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1268.68094731003</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="C44" t="n">
-        <v>1268.68094731003</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D44" t="n">
-        <v>1268.68094731003</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117852</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F44" t="n">
         <v>471.9067899221776</v>
@@ -7648,19 +7648,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7678,22 +7678,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U44" t="n">
-        <v>2418.885877611043</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V44" t="n">
-        <v>2418.885877611043</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W44" t="n">
-        <v>2418.885877611043</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X44" t="n">
-        <v>2045.420119349963</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y44" t="n">
-        <v>1655.280787374151</v>
+        <v>722.2873163082934</v>
       </c>
     </row>
     <row r="45">
@@ -7718,7 +7718,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7751,7 +7751,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
         <v>2488.762748073963</v>
@@ -7812,43 +7812,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T46" t="n">
-        <v>579.9823256406185</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U46" t="n">
-        <v>290.8087152951864</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V46" t="n">
-        <v>290.8087152951864</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W46" t="n">
-        <v>290.8087152951864</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>62.81916439716906</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
         <v>53.94298182036445</v>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8063,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8543,16 +8543,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O9" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8786,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9017,13 +9017,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451762</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050815</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9488,13 +9488,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360587</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10208,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10445,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928316</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599052</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951772</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11150,13 +11150,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22567,10 +22567,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22597,7 +22597,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22606,16 +22606,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>96.87776287405225</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>382.9726225988569</v>
       </c>
     </row>
     <row r="3">
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>90.01494526515906</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22643,7 +22643,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>76.82817876295802</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22682,19 +22682,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22795,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>128.0146919313124</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22913,19 +22913,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>106.5525690386006</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23032,10 +23032,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>330.8829497359738</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23068,10 +23068,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23080,16 +23080,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>183.9432522271564</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23102,16 +23102,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -23156,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>145.0075734897171</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23232,7 +23232,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>292.7758369750206</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>147.7721088551454</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -23439,7 +23439,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>277.0062774114808</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>208.7942127384451</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>135.1112399863663</v>
       </c>
       <c r="E14" t="n">
-        <v>158.6990336467719</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,10 +23557,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>140.9809822185503</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
@@ -23676,7 +23676,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>277.0062774114808</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23734,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>5.707901886342995</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>200.8619812535388</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>4.920046585016706</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
@@ -23949,7 +23949,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>119.2034295909767</v>
       </c>
     </row>
     <row r="20">
@@ -23977,10 +23977,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>310.7267026189753</v>
       </c>
       <c r="F20" t="n">
-        <v>261.5304632865414</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24147,10 +24147,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,28 +24171,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>231.8063182229436</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>12.03533246204708</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24211,16 +24211,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>342.1410581615188</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>368.5527852067814</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>156.2425264275697</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,13 +24408,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>65.52911452950184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>89.79231049789934</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>124.9874213183507</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>72.67053247541048</v>
       </c>
       <c r="H28" t="n">
-        <v>69.04514176270747</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>219.4114360937593</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>328.3545949083655</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24861,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>229.7672929489987</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24903,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>211.7475136391127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>250.1717049500847</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>108.8834281215534</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,31 +25119,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>164.1090973330612</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>96.92615468724765</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,22 +25159,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>1.107082982094823</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>160.1338289389346</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25216,10 +25216,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>51.16670818343242</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25335,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>17.3673447949563</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,16 +25402,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>58.74216000639325</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25453,10 +25453,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>93.4327900269945</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25572,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25608,16 +25608,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>51.04847948014717</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>12.42385312965703</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>158.7225296272181</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>233.5574947734731</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25833,28 +25833,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>223.3281785469225</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>175.6530016829085</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>134.857120541226</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,10 +25873,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25918,16 +25918,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>30.22198880999329</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26046,7 +26046,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>21.87414536972216</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>209.7972326010582</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473736.5515495131</v>
+        <v>473736.551549513</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>473736.551549513</v>
+        <v>473736.5515495131</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>807285.7756484512</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>807285.7756484509</v>
+        <v>807285.7756484512</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>807285.7756484511</v>
+        <v>807285.7756484509</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>807285.7756484512</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>807285.7756484513</v>
+        <v>807285.7756484512</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>807285.7756484507</v>
+        <v>807285.7756484512</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>807285.7756484512</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
   </sheetData>
@@ -26322,7 +26322,7 @@
         <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="F2" t="n">
         <v>231322.0880126061</v>
@@ -26337,10 +26337,10 @@
         <v>231322.0880126061</v>
       </c>
       <c r="J2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126063</v>
       </c>
       <c r="K2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="L2" t="n">
         <v>231322.0880126061</v>
@@ -26349,13 +26349,13 @@
         <v>231322.0880126061</v>
       </c>
       <c r="N2" t="n">
+        <v>231322.0880126062</v>
+      </c>
+      <c r="O2" t="n">
+        <v>231322.0880126062</v>
+      </c>
+      <c r="P2" t="n">
         <v>231322.0880126061</v>
-      </c>
-      <c r="O2" t="n">
-        <v>231322.0880126061</v>
-      </c>
-      <c r="P2" t="n">
-        <v>231322.0880126062</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.1740429962</v>
+        <v>432846.1740429961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910629</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26444,7 +26444,7 @@
         <v>27086.83710496504</v>
       </c>
       <c r="K4" t="n">
-        <v>27086.83710496503</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="L4" t="n">
         <v>27086.83710496504</v>
@@ -26453,13 +26453,13 @@
         <v>27086.83710496504</v>
       </c>
       <c r="N4" t="n">
-        <v>27086.83710496503</v>
+        <v>27086.83710496505</v>
       </c>
       <c r="O4" t="n">
         <v>27086.83710496504</v>
       </c>
       <c r="P4" t="n">
-        <v>27086.83710496503</v>
+        <v>27086.83710496504</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340949</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340946</v>
@@ -26493,22 +26493,22 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="O5" t="n">
         <v>49231.47806340946</v>
-      </c>
-      <c r="O5" t="n">
-        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21404.43048286276</v>
+        <v>-33622.44110290322</v>
       </c>
       <c r="C6" t="n">
-        <v>59365.00104868494</v>
+        <v>47146.99042864451</v>
       </c>
       <c r="D6" t="n">
-        <v>59365.00104868497</v>
+        <v>47146.99042864454</v>
       </c>
       <c r="E6" t="n">
-        <v>-277842.4011987645</v>
+        <v>-283910.8149445836</v>
       </c>
       <c r="F6" t="n">
-        <v>155003.7728442316</v>
+        <v>148935.3590984124</v>
       </c>
       <c r="G6" t="n">
-        <v>155003.7728442316</v>
+        <v>148935.3590984124</v>
       </c>
       <c r="H6" t="n">
-        <v>155003.7728442316</v>
+        <v>148935.3590984126</v>
       </c>
       <c r="I6" t="n">
-        <v>155003.7728442316</v>
+        <v>148935.3590984124</v>
       </c>
       <c r="J6" t="n">
-        <v>91943.83024512535</v>
+        <v>85875.41649930626</v>
       </c>
       <c r="K6" t="n">
-        <v>155003.7728442316</v>
+        <v>148935.3590984125</v>
       </c>
       <c r="L6" t="n">
-        <v>155003.7728442316</v>
+        <v>148935.3590984124</v>
       </c>
       <c r="M6" t="n">
-        <v>47030.41217017343</v>
+        <v>40961.9984243542</v>
       </c>
       <c r="N6" t="n">
-        <v>155003.7728442316</v>
+        <v>148935.3590984124</v>
       </c>
       <c r="O6" t="n">
-        <v>155003.7728442316</v>
+        <v>148935.3590984125</v>
       </c>
       <c r="P6" t="n">
-        <v>155003.7728442317</v>
+        <v>148935.3590984124</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26764,22 +26764,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26798,37 +26798,37 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="F4" t="n">
+        <v>674.2872727545558</v>
+      </c>
+      <c r="G4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="F4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="G4" t="n">
-        <v>674.2872727545556</v>
-      </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545556</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768967</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776593</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768967</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31785,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31934,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31995,7 +31995,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32004,34 +32004,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M14" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P14" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,40 +32068,40 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I15" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P15" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
@@ -32110,7 +32110,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,25 +32171,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,43 +32232,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P17" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N18" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,25 +32408,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J20" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K20" t="n">
         <v>193.1674799081577</v>
@@ -32484,25 +32484,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L21" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M21" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N21" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P21" t="n">
         <v>155.1528646479577</v>
@@ -32575,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M22" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N22" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32724,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32812,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32897,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34365,19 +34365,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34392,13 +34392,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34465,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34541,16 +34541,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34783,22 +34783,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35263,16 +35263,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O9" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35500,13 +35500,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35652,22 +35652,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M14" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P14" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>439.883913335513</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35819,10 +35819,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P17" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36056,10 +36056,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O19" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36135,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N21" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
@@ -36281,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M22" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N22" t="n">
         <v>148.370846145888</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
@@ -36451,13 +36451,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36685,7 +36685,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36922,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37396,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060957</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37563,7 +37563,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898695</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730622</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37870,13 +37870,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38107,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>538836.425446809</v>
+        <v>599671.9003585093</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554233</v>
+        <v>337002.2430554238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.68099519</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8372090.023649041</v>
+        <v>8372090.02364904</v>
       </c>
     </row>
     <row r="11">
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -803,7 +803,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>202.2946864288972</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>103.9917919211018</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>65.1306020652372</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1144,55 +1144,55 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G8" t="n">
-        <v>84.41978777916125</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R8" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S8" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>84.13945191645354</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>61.9072046456624</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>73.24171307004686</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231968</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>25.02169492285096</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>16.91544265059203</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>219.5718016343167</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>296.2138270568552</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>104.3883541553075</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250886</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888687</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>162.3364906735236</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>26.32882004050061</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>192.4564150008914</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>50.36218625475047</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>94.65568569260694</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>99.38122376111812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>126.9754573707992</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>71.20366745328644</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231968</v>
       </c>
       <c r="H21" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>128.7835007017902</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>213.6743229269901</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>12.54198345916413</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2335,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
@@ -2380,10 +2380,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>312.5869525641333</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>11.00429467105819</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>275.4805812731082</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>89.00389277357158</v>
       </c>
     </row>
     <row r="27">
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>94.63926978364043</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>11.0042946710584</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2797,16 +2797,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>85.42957511242953</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>76.77496962571279</v>
       </c>
     </row>
     <row r="30">
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>56.51458129297908</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>198.6687578885146</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>240.3575405958596</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3231,16 +3231,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>60.92600812502312</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>47.14167849255895</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>246.7422168027768</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>317.1002770370486</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,22 +3313,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3362,7 +3362,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
         <v>61.42221998250818</v>
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>78.40333552909894</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>208.3423105940809</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3520,10 +3520,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>93.189156238468</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>49.26213668469006</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>208.2793294336578</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>206.1608002224378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3751,10 +3751,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>141.3279142046489</v>
       </c>
       <c r="G41" t="n">
-        <v>180.2266752473219</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>123.4514883688806</v>
       </c>
       <c r="U43" t="n">
-        <v>62.9536956950552</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>247.8767211222546</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>178.7007731121706</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
@@ -4042,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>67.17737911999795</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>203.1609600883621</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4351,28 +4351,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>752.9257720901863</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U2" t="n">
-        <v>752.9257720901863</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V2" t="n">
-        <v>509.4769954460863</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="W2" t="n">
-        <v>266.0282188019862</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="X2" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
         <v>19.28114311021272</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.04605772994853</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C3" t="n">
-        <v>55.04605772994853</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D3" t="n">
-        <v>55.04605772994853</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E3" t="n">
-        <v>55.04605772994853</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F3" t="n">
-        <v>55.04605772994853</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G3" t="n">
-        <v>55.04605772994853</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="I3" t="n">
         <v>19.28114311021272</v>
@@ -4418,16 +4418,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4439,22 +4439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>298.4948343740486</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>55.04605772994853</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>55.04605772994853</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y3" t="n">
-        <v>55.04605772994853</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="4">
@@ -4521,10 +4521,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>710.516763498309</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
         <v>542.809531908403</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>898.2686685760532</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>898.2686685760532</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>670.0450503124422</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V6" t="n">
-        <v>434.8929420806995</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W6" t="n">
-        <v>434.8929420806995</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X6" t="n">
-        <v>227.0414418751666</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="7">
@@ -4749,7 +4749,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
         <v>19.28114311021272</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>348.0024326625565</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C8" t="n">
-        <v>348.0024326625565</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D8" t="n">
-        <v>348.0024326625565</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E8" t="n">
-        <v>348.0024326625565</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F8" t="n">
-        <v>104.5536560184564</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066566</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U8" t="n">
-        <v>591.4512093066566</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V8" t="n">
-        <v>591.4512093066566</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W8" t="n">
-        <v>591.4512093066566</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X8" t="n">
-        <v>591.4512093066566</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y8" t="n">
-        <v>348.0024326625565</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
         <v>542.809531908403</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>777.8982806933668</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>575.7116860521329</v>
       </c>
       <c r="U9" t="n">
-        <v>913.4938269565423</v>
+        <v>347.488067788522</v>
       </c>
       <c r="V9" t="n">
-        <v>678.3417187247995</v>
+        <v>347.488067788522</v>
       </c>
       <c r="W9" t="n">
-        <v>434.8929420806995</v>
+        <v>347.488067788522</v>
       </c>
       <c r="X9" t="n">
-        <v>227.0414418751666</v>
+        <v>347.488067788522</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>347.488067788522</v>
       </c>
     </row>
     <row r="10">
@@ -4983,16 +4983,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U10" t="n">
         <v>19.28114311021272</v>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1314.38774159731</v>
+        <v>1321.530002831497</v>
       </c>
       <c r="C11" t="n">
-        <v>945.4252246568988</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D11" t="n">
-        <v>882.8926947117852</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117852</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5059,34 +5059,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U11" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V11" t="n">
-        <v>2057.295728843236</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W11" t="n">
-        <v>1704.527073573122</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X11" t="n">
-        <v>1704.527073573122</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y11" t="n">
-        <v>1314.38774159731</v>
+        <v>1708.129842895619</v>
       </c>
     </row>
     <row r="12">
@@ -5096,67 +5096,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5165,7 +5165,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>200.8329293182748</v>
+        <v>398.3338608103788</v>
       </c>
       <c r="C13" t="n">
-        <v>200.8329293182748</v>
+        <v>398.3338608103788</v>
       </c>
       <c r="D13" t="n">
-        <v>200.8329293182748</v>
+        <v>248.2172213980431</v>
       </c>
       <c r="E13" t="n">
-        <v>200.8329293182748</v>
+        <v>248.2172213980431</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="W13" t="n">
-        <v>438.7118141694736</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="X13" t="n">
-        <v>421.6255084618049</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="Y13" t="n">
-        <v>200.8329293182748</v>
+        <v>579.9823256406186</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1490.470645930551</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C14" t="n">
-        <v>1490.470645930551</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D14" t="n">
-        <v>1268.68094731003</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E14" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533143</v>
@@ -5290,10 +5290,10 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
         <v>2544.691559791253</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>2267.209817970485</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V14" t="n">
-        <v>2267.209817970485</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W14" t="n">
-        <v>2267.209817970485</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="X14" t="n">
-        <v>2267.209817970485</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="Y14" t="n">
-        <v>1877.070485994673</v>
+        <v>1405.321187657107</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170839</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359569</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747056</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692501</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961351</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424012</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673431</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
@@ -5369,13 +5369,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517454</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537798</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152627</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5390,19 +5390,19 @@
         <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.714576167583</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
         <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207639</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002106</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>546.4805193761948</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C16" t="n">
-        <v>377.5443364482879</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D16" t="n">
-        <v>227.4276970359522</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E16" t="n">
-        <v>227.4276970359522</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F16" t="n">
-        <v>80.53774953804185</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5475,13 +5475,13 @@
         <v>728.1289842064346</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064346</v>
+        <v>438.7118141694739</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064346</v>
+        <v>438.7118141694739</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064346</v>
+        <v>217.9192350259438</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1595.875667274027</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="C17" t="n">
-        <v>1595.875667274027</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="D17" t="n">
-        <v>1595.875667274027</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E17" t="n">
-        <v>1210.087414675782</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F17" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
         <v>881.2824271224076</v>
@@ -5533,34 +5533,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T17" t="n">
-        <v>2423.485734520779</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U17" t="n">
-        <v>2372.61483931396</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V17" t="n">
-        <v>2372.61483931396</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W17" t="n">
-        <v>2372.61483931396</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X17" t="n">
-        <v>2372.61483931396</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="Y17" t="n">
-        <v>1982.475507338148</v>
+        <v>819.7731851199076</v>
       </c>
     </row>
     <row r="18">
@@ -5570,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598709</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
         <v>1748.695370517453</v>
@@ -5615,22 +5615,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>373.0594214943678</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C19" t="n">
-        <v>373.0594214943678</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5682,7 +5682,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
         <v>529.6040388502502</v>
@@ -5691,34 +5691,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V19" t="n">
-        <v>473.4444960005477</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W19" t="n">
-        <v>473.4444960005477</v>
+        <v>632.5171804765284</v>
       </c>
       <c r="X19" t="n">
-        <v>473.4444960005477</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="Y19" t="n">
-        <v>373.0594214943678</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1744.740694543503</v>
+        <v>1369.416431066818</v>
       </c>
       <c r="C20" t="n">
-        <v>1375.778177603091</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D20" t="n">
-        <v>1017.512478996341</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E20" t="n">
-        <v>945.5895825788796</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>534.603677789272</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T20" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U20" t="n">
-        <v>2465.942913862885</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V20" t="n">
-        <v>2134.880026519314</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W20" t="n">
-        <v>2134.880026519314</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X20" t="n">
-        <v>2134.880026519314</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y20" t="n">
-        <v>1744.740694543503</v>
+        <v>1369.416431066818</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915165</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064341</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064341</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W22" t="n">
-        <v>438.7118141694735</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X22" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1344.046505337896</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C23" t="n">
-        <v>1344.046505337896</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D23" t="n">
-        <v>1331.377835177124</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E23" t="n">
-        <v>945.5895825788796</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F23" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G23" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6016,25 +6016,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U23" t="n">
-        <v>2048.575150942546</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V23" t="n">
-        <v>1717.512263598976</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W23" t="n">
-        <v>1717.512263598976</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="X23" t="n">
-        <v>1344.046505337896</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="Y23" t="n">
-        <v>1344.046505337896</v>
+        <v>1577.945354755378</v>
       </c>
     </row>
     <row r="24">
@@ -6044,67 +6044,67 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>65.05843098304948</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U25" t="n">
-        <v>513.8405610245969</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V25" t="n">
-        <v>513.8405610245969</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X25" t="n">
-        <v>285.8510101265796</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>65.05843098304948</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1546.94416071721</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C26" t="n">
-        <v>1268.68094731003</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.68094731003</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E26" t="n">
         <v>882.8926947117852</v>
@@ -6217,13 +6217,13 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533142</v>
@@ -6244,34 +6244,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018223</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018223</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018223</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757143</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y26" t="n">
-        <v>1933.544000781331</v>
+        <v>1241.158393318536</v>
       </c>
     </row>
     <row r="27">
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
         <v>2188.831293537797</v>
@@ -6326,28 +6326,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>149.5382038240417</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>149.5382038240417</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>149.5382038240417</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>149.5382038240417</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>149.5382038240417</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U28" t="n">
-        <v>438.9553738610023</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V28" t="n">
-        <v>438.9553738610023</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W28" t="n">
-        <v>149.5382038240417</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X28" t="n">
-        <v>149.5382038240417</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y28" t="n">
-        <v>149.5382038240417</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1253.251950079336</v>
+        <v>1219.679656148628</v>
       </c>
       <c r="C29" t="n">
-        <v>884.2894331389243</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="D29" t="n">
-        <v>526.0237345321739</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E29" t="n">
-        <v>140.2354819339296</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F29" t="n">
-        <v>140.2354819339296</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036445</v>
@@ -6466,10 +6466,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V29" t="n">
-        <v>2366.086203674652</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W29" t="n">
-        <v>2013.317548404538</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X29" t="n">
-        <v>1639.851790143458</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="Y29" t="n">
-        <v>1639.851790143458</v>
+        <v>1606.27949621275</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
@@ -6542,43 +6542,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
         <v>53.94298182036445</v>
@@ -6651,22 +6651,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>443.7353612255621</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V31" t="n">
-        <v>443.7353612255621</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W31" t="n">
-        <v>443.7353612255621</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
-        <v>443.7353612255621</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1595.875667274027</v>
+        <v>1409.658350833668</v>
       </c>
       <c r="C32" t="n">
-        <v>1595.875667274027</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D32" t="n">
-        <v>1595.875667274027</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E32" t="n">
-        <v>1210.087414675782</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F32" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
         <v>53.94298182036445</v>
@@ -6703,16 +6703,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6736,16 +6736,16 @@
         <v>2169.72394915887</v>
       </c>
       <c r="V32" t="n">
-        <v>1838.661061815299</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W32" t="n">
-        <v>1595.875667274027</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X32" t="n">
-        <v>1595.875667274027</v>
+        <v>1796.25819089779</v>
       </c>
       <c r="Y32" t="n">
-        <v>1595.875667274027</v>
+        <v>1796.25819089779</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424003</v>
@@ -6779,22 +6779,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
         <v>2525.076107152626</v>
@@ -6818,10 +6818,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F34" t="n">
         <v>53.94298182036445</v>
@@ -6879,31 +6879,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X34" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>680.5111271432434</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1465.19530355422</v>
+        <v>1529.2861479534</v>
       </c>
       <c r="C35" t="n">
-        <v>1465.19530355422</v>
+        <v>1529.2861479534</v>
       </c>
       <c r="D35" t="n">
-        <v>1106.929604947469</v>
+        <v>1171.020449346649</v>
       </c>
       <c r="E35" t="n">
-        <v>721.1413523492249</v>
+        <v>785.2321967484049</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>374.2462919587974</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733127</v>
@@ -6955,10 +6955,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
         <v>2642.120401548716</v>
@@ -6967,22 +6967,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V35" t="n">
-        <v>1838.661061815299</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W35" t="n">
-        <v>1838.661061815299</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X35" t="n">
-        <v>1465.19530355422</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y35" t="n">
-        <v>1465.19530355422</v>
+        <v>1915.885988017521</v>
       </c>
     </row>
     <row r="36">
@@ -6992,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
         <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7061,7 +7061,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>517.6822058285749</v>
+        <v>280.0282177315061</v>
       </c>
       <c r="C37" t="n">
-        <v>348.7460229006679</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D37" t="n">
-        <v>348.7460229006679</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E37" t="n">
         <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064343</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064343</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064343</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064343</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X37" t="n">
-        <v>517.6822058285749</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y37" t="n">
-        <v>517.6822058285749</v>
+        <v>280.0282177315061</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1662.48357412947</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C38" t="n">
-        <v>1662.48357412947</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D38" t="n">
-        <v>1304.21787552272</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E38" t="n">
-        <v>1304.21787552272</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>893.2319707331121</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>475.268162631299</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>148.0734426673018</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7195,31 +7195,31 @@
         <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834949</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.546461473041</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V38" t="n">
-        <v>1662.48357412947</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W38" t="n">
-        <v>1662.48357412947</v>
+        <v>2373.726000495839</v>
       </c>
       <c r="X38" t="n">
-        <v>1662.48357412947</v>
+        <v>2000.260242234759</v>
       </c>
       <c r="Y38" t="n">
-        <v>1662.48357412947</v>
+        <v>1610.120910258947</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
         <v>309.190302261463</v>
@@ -7274,22 +7274,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>519.8857516585174</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C40" t="n">
-        <v>350.9495687306105</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D40" t="n">
-        <v>200.8329293182748</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E40" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7341,43 +7341,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064343</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064343</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064343</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="Y40" t="n">
-        <v>519.8857516585174</v>
+        <v>517.7458231623355</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1349.006596680237</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C41" t="n">
-        <v>980.0440797398257</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D41" t="n">
-        <v>621.7783811330753</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="E41" t="n">
-        <v>235.9901285348311</v>
+        <v>196.6984507139492</v>
       </c>
       <c r="F41" t="n">
-        <v>235.9901285348311</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036445</v>
@@ -7411,19 +7411,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U41" t="n">
-        <v>2478.514423990285</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V41" t="n">
-        <v>2478.514423990285</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W41" t="n">
-        <v>2125.745768720171</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X41" t="n">
-        <v>2125.745768720171</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y41" t="n">
-        <v>1735.606436744359</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>222.942782082032</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C43" t="n">
-        <v>222.942782082032</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D43" t="n">
-        <v>222.942782082032</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E43" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7575,46 +7575,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>286.5323736931989</v>
+        <v>603.4305111065548</v>
       </c>
       <c r="U43" t="n">
-        <v>222.942782082032</v>
+        <v>603.4305111065548</v>
       </c>
       <c r="V43" t="n">
-        <v>222.942782082032</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="W43" t="n">
-        <v>222.942782082032</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X43" t="n">
-        <v>222.942782082032</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.942782082032</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>471.9067899221776</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="C44" t="n">
-        <v>471.9067899221776</v>
+        <v>1390.593246102217</v>
       </c>
       <c r="D44" t="n">
-        <v>471.9067899221776</v>
+        <v>1390.593246102217</v>
       </c>
       <c r="E44" t="n">
-        <v>471.9067899221776</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036445</v>
@@ -7651,10 +7651,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2169.72394915887</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V44" t="n">
-        <v>1838.661061815299</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W44" t="n">
-        <v>1485.892406545185</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X44" t="n">
-        <v>1112.426648284105</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y44" t="n">
-        <v>722.2873163082934</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>290.7987205870805</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>290.7987205870805</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>121.7989203254129</v>
       </c>
       <c r="H46" t="n">
         <v>53.94298182036445</v>
@@ -7833,25 +7833,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
   </sheetData>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>242.4075215744184</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N6" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8786,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>359.9065542451762</v>
+        <v>359.9065542451758</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9248,13 +9248,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>251.4045252050815</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,10 +9491,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O21" t="n">
-        <v>350.4438349360587</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,10 +9965,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360584</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,13 +10202,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10445,7 +10445,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599052</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22600,22 +22600,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>358.5380445222895</v>
       </c>
       <c r="Y2" t="n">
-        <v>382.9726225988569</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22643,10 +22643,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>76.82817876295802</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>59.59762388653245</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22679,7 +22679,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22691,7 +22691,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22761,13 +22761,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>180.4391552345834</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22865,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>68.71670706721396</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22913,10 +22913,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>106.5525690386006</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22928,10 +22928,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22989,10 +22989,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23032,10 +23032,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>330.8829497359738</v>
+        <v>185.0989125581653</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23065,22 +23065,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23108,7 +23108,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>87.54371918738428</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23223,7 +23223,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23232,10 +23232,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>239.2941050228172</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>292.7758369750206</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>312.9962255860067</v>
       </c>
     </row>
     <row r="12">
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>120.3993531000803</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
@@ -23439,7 +23439,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>208.7942127384451</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>135.1112399863663</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
@@ -23554,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>73.51727362161381</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>17.49548950841373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>140.9809822185503</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
@@ -23715,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>190.2774266625891</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>200.8619812535388</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801578</v>
@@ -23949,16 +23949,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>191.8673126439841</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>119.2034295909767</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,25 +23971,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>238.2974344002083</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>310.7267026189753</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24147,10 +24147,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,10 +24171,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24183,16 +24183,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>12.03533246204708</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,10 +24208,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>342.1410581615188</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24268,10 +24268,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>36.65401615327971</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>156.2425264275697</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24384,10 +24384,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,31 +24408,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>89.79231049789934</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24499,19 +24499,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>297.234045882482</v>
       </c>
     </row>
     <row r="27">
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>72.67053247541048</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24624,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>241.1333486527696</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24685,16 +24685,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>328.3545949083655</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24736,19 +24736,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>309.4629690303408</v>
       </c>
     </row>
     <row r="30">
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24891,22 +24891,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>229.7672929489987</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>166.604133882493</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24976,13 +24976,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.8834281215534</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25095,10 +25095,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,16 +25119,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>164.1090973330612</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>171.4429748595358</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25165,10 +25165,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>160.1338289389346</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>96.68389298374638</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25207,16 +25207,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>88.84348556952889</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25335,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25377,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>17.3673447949563</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>58.74216000639325</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>299.9788320327229</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,19 +25551,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25608,7 +25608,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>43.85831389017025</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>12.42385312965703</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>265.5481315370625</v>
       </c>
       <c r="G41" t="n">
-        <v>233.5574947734731</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25794,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25809,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>101.5836170892037</v>
       </c>
       <c r="U43" t="n">
-        <v>223.3281785469225</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>134.857120541226</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>203.2295969600912</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>88.9935097217972</v>
       </c>
       <c r="I46" t="n">
         <v>134.9656217923382</v>
@@ -26073,19 +26073,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>21.87414536972216</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473736.551549513</v>
+        <v>473736.5515495129</v>
       </c>
     </row>
     <row r="3">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>807285.7756484512</v>
+        <v>807285.7756484509</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>807285.7756484509</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>807285.7756484511</v>
+        <v>807285.7756484512</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>807285.7756484512</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>807285.7756484511</v>
+        <v>807285.7756484512</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>807285.7756484511</v>
+        <v>807285.7756484512</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>807285.7756484512</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>807285.7756484512</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>132928.5380250659</v>
+        <v>132928.538025066</v>
       </c>
       <c r="C2" t="n">
-        <v>132928.5380250659</v>
+        <v>132928.538025066</v>
       </c>
       <c r="D2" t="n">
         <v>132928.5380250659</v>
@@ -26325,34 +26325,34 @@
         <v>231322.0880126061</v>
       </c>
       <c r="F2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="G2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="H2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="I2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="J2" t="n">
-        <v>231322.0880126063</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="K2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="L2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="M2" t="n">
+        <v>231322.0880126062</v>
+      </c>
+      <c r="N2" t="n">
         <v>231322.0880126061</v>
       </c>
-      <c r="N2" t="n">
-        <v>231322.0880126062</v>
-      </c>
       <c r="O2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="P2" t="n">
         <v>231322.0880126061</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.1740429961</v>
+        <v>432846.1740429963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910629</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26453,7 +26453,7 @@
         <v>27086.83710496504</v>
       </c>
       <c r="N4" t="n">
-        <v>27086.83710496505</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="O4" t="n">
         <v>27086.83710496504</v>
@@ -26478,22 +26478,22 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
+        <v>49231.47806340948</v>
+      </c>
+      <c r="F5" t="n">
+        <v>49231.47806340948</v>
+      </c>
+      <c r="G5" t="n">
         <v>49231.47806340946</v>
       </c>
-      <c r="F5" t="n">
-        <v>49231.47806340949</v>
-      </c>
-      <c r="G5" t="n">
-        <v>49231.47806340948</v>
-      </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
@@ -26502,10 +26502,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33622.44110290322</v>
+        <v>-22626.23154486672</v>
       </c>
       <c r="C6" t="n">
-        <v>47146.99042864451</v>
+        <v>58143.19998668099</v>
       </c>
       <c r="D6" t="n">
-        <v>47146.99042864454</v>
+        <v>58143.19998668093</v>
       </c>
       <c r="E6" t="n">
-        <v>-283910.8149445836</v>
+        <v>-278449.2425733466</v>
       </c>
       <c r="F6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696497</v>
       </c>
       <c r="G6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696498</v>
       </c>
       <c r="H6" t="n">
-        <v>148935.3590984126</v>
+        <v>154396.9314696498</v>
       </c>
       <c r="I6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696497</v>
       </c>
       <c r="J6" t="n">
-        <v>85875.41649930626</v>
+        <v>91336.98887054352</v>
       </c>
       <c r="K6" t="n">
-        <v>148935.3590984125</v>
+        <v>154396.9314696497</v>
       </c>
       <c r="L6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696497</v>
       </c>
       <c r="M6" t="n">
-        <v>40961.9984243542</v>
+        <v>46423.57079559158</v>
       </c>
       <c r="N6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696497</v>
       </c>
       <c r="O6" t="n">
-        <v>148935.3590984125</v>
+        <v>154396.9314696497</v>
       </c>
       <c r="P6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696497</v>
       </c>
     </row>
   </sheetData>
@@ -26746,22 +26746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170868</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
         <v>377.7436642170866</v>
@@ -26770,13 +26770,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
         <v>377.7436642170866</v>
@@ -26798,22 +26798,22 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="F4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="G4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="F4" t="n">
-        <v>674.2872727545558</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="H4" t="n">
-        <v>674.2872727545555</v>
-      </c>
       <c r="I4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
@@ -26822,10 +26822,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768965</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776593</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768965</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,43 +31758,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P11" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31934,25 +31934,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32241,34 +32241,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,40 +32305,40 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
@@ -32347,7 +32347,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,25 +32408,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L21" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M21" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N21" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M22" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N22" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,22 +32882,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33523,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34155,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34786,19 +34786,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>99.8112771299739</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N6" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P11" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624592</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35582,10 +35582,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35737,7 +35737,7 @@
         <v>529.4413268262939</v>
       </c>
       <c r="N15" t="n">
-        <v>439.883913335513</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
@@ -35889,22 +35889,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36056,10 +36056,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O19" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O21" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36281,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M22" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N22" t="n">
         <v>148.370846145888</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36448,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,13 +36685,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839187</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36922,13 +36922,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -37083,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37162,10 +37162,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37396,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898695</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M45" t="n">
         <v>529.4413268262938</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
